--- a/XuMiuDuTing/RabiConfig/xlsx/Enemy.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Enemy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037472CE-CCE2-4F37-A782-0A5A8D6B7A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F046F739-FDE9-459E-A83E-DFAA9251F8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,13 @@
   </si>
   <si>
     <t>Assets/AddressableAssets/Obj/Spine/EnemyA.prefab</t>
+  </si>
+  <si>
+    <t>龋齿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Obj/Spine/龋齿.prefab</t>
   </si>
 </sst>
 </file>
@@ -477,10 +484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -611,6 +618,32 @@
         <v>50</v>
       </c>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>90</v>
+      </c>
+      <c r="F5">
+        <v>982</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/XuMiuDuTing/RabiConfig/xlsx/Enemy.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Enemy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F046F739-FDE9-459E-A83E-DFAA9251F8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBF880A-5127-42A3-8914-EB62A2F021E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,7 +487,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -516,10 +516,10 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>12</v>
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>18</v>
@@ -580,10 +580,10 @@
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -600,16 +600,16 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>90</v>
+        <v>9000</v>
       </c>
       <c r="F4">
         <v>982</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>28</v>
       </c>
       <c r="E5">
-        <v>90</v>
+        <v>9999</v>
       </c>
       <c r="F5">
-        <v>982</v>
+        <v>563</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
       </c>
       <c r="I5">
         <v>1</v>

--- a/XuMiuDuTing/RabiConfig/xlsx/Enemy.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Enemy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBF880A-5127-42A3-8914-EB62A2F021E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E669EBE-EBB2-4574-9862-443D18C813B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/XuMiuDuTing/RabiConfig/xlsx/Enemy.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Enemy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E669EBE-EBB2-4574-9862-443D18C813B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D29E918-DB43-4FF0-945E-8655B56CAC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,26 @@
   </si>
   <si>
     <t>Assets/AddressableAssets/Obj/Spine/龋齿.prefab</t>
+  </si>
+  <si>
+    <t>龋齿_Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isExceptBattleWinCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗胜利检测是否排除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Obj/Spine/龋齿_Idle.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -484,10 +504,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -496,7 +516,7 @@
     <col min="3" max="3" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,8 +547,11 @@
       <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,8 +582,11 @@
       <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -591,8 +617,11 @@
       <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -617,8 +646,11 @@
       <c r="J4">
         <v>50</v>
       </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -642,6 +674,38 @@
       </c>
       <c r="J5">
         <v>50</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>9999</v>
+      </c>
+      <c r="F6">
+        <v>563</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
